--- a/Calculator2.8/FCData.xlsx
+++ b/Calculator2.8/FCData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Bill ID</t>
   </si>
@@ -26,10 +26,13 @@
     <t>FC Summary</t>
   </si>
   <si>
-    <t>127977138182</t>
+    <t>000965482078</t>
   </si>
   <si>
-    <t>3000</t>
+    <t>8091</t>
+  </si>
+  <si>
+    <t>6741.63</t>
   </si>
 </sst>
 </file>
@@ -102,10 +105,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Calculator2.8/FCData.xlsx
+++ b/Calculator2.8/FCData.xlsx
@@ -29,7 +29,7 @@
     <t>000965482078</t>
   </si>
   <si>
-    <t>8091</t>
+    <t>2841.3</t>
   </si>
   <si>
     <t>6741.63</t>

--- a/Calculator2.8/FCData.xlsx
+++ b/Calculator2.8/FCData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Bill ID</t>
   </si>
@@ -26,13 +26,10 @@
     <t>FC Summary</t>
   </si>
   <si>
-    <t>000965482078</t>
+    <t>539506746252</t>
   </si>
   <si>
-    <t>2841.3</t>
-  </si>
-  <si>
-    <t>6741.63</t>
+    <t>1500</t>
   </si>
 </sst>
 </file>
@@ -105,10 +102,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
